--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="527" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="527" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="原始資料" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     <t>MA(3)</t>
   </si>
   <si>
-    <t>MA(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -140,6 +136,10 @@
   </si>
   <si>
     <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,8 +773,8 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="0">AVERAGE(B2:B4)</f>
-        <v>3</v>
+        <f>AVERAGE(B2:B3)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,8 +785,8 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <f t="shared" ref="C5:C9" si="0">AVERAGE(B3:B4)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,10 +876,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,19 +998,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>0.69202319606795237</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>0.47889610389610371</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>0.13149350649350625</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>1.4930394055974101</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -1050,30 +1050,30 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -1125,33 +1125,33 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>3.4999999999999987</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
         <v>0.81250000000000011</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3">
         <v>-0.93749999999999978</v>
@@ -1246,7 +1246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:D9" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C9" si="0">B4-B3</f>
         <v>-1</v>
       </c>
     </row>
